--- a/Data/coordenadas transectos.xlsx
+++ b/Data/coordenadas transectos.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="130">
   <si>
     <t xml:space="preserve">Polygons</t>
   </si>
@@ -28,28 +28,34 @@
     <t xml:space="preserve">Sites</t>
   </si>
   <si>
-    <t xml:space="preserve">Sitio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transecto 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transecto 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transecto 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Punto 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Punto 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Punto 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tetlanohcan 1</t>
+    <t xml:space="preserve">Sampling point-start1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sampling point-middle1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sampling point-ending1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sampling point-start2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sampling point-middle2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sampling point-ending2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sampling point-start3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sampling point-middle3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sampling point-ending3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Tetlanohcan 1</t>
   </si>
   <si>
     <r>
@@ -430,7 +436,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Tetlanohcan 2</t>
+    <t xml:space="preserve">2.Tetlanohcan 2</t>
   </si>
   <si>
     <r>
@@ -811,7 +817,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">La Ascención Huitzcolotepec</t>
+    <t xml:space="preserve">3. La Ascención Huitzcolotepec</t>
   </si>
   <si>
     <r>
@@ -1192,7 +1198,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Tepeticpac</t>
+    <t xml:space="preserve">4. Tepeticpac</t>
   </si>
   <si>
     <r>
@@ -1573,7 +1579,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">El Carmen Las Carrozas</t>
+    <t xml:space="preserve">5. El Carmen Las Carrozas</t>
   </si>
   <si>
     <r>
@@ -1954,7 +1960,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">La Caridad</t>
+    <t xml:space="preserve">6. La Caridad</t>
   </si>
   <si>
     <r>
@@ -2335,7 +2341,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Tandi-Chala</t>
+    <t xml:space="preserve">7.Tandi-Chala</t>
   </si>
   <si>
     <r>
@@ -2716,7 +2722,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">San Francisco Mitepec</t>
+    <t xml:space="preserve">8. San Francisco Mitepec</t>
   </si>
   <si>
     <r>
@@ -3097,7 +3103,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Piedra Canteada de San Felipe, Hidalgo</t>
+    <t xml:space="preserve">9. Piedra Canteada de San Felipe, Hidalgo</t>
   </si>
   <si>
     <r>
@@ -3478,7 +3484,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Paraje El Madroño</t>
+    <t xml:space="preserve">10. Paraje El Madroño</t>
   </si>
   <si>
     <r>
@@ -3859,7 +3865,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Ejido San Gabriel</t>
+    <t xml:space="preserve">11. Ejido San Gabriel</t>
   </si>
   <si>
     <r>
@@ -4198,7 +4204,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">San Rafael Ixtapalucan 2</t>
+    <t xml:space="preserve">12. San Rafael Ixtapalucan 2</t>
   </si>
   <si>
     <r>
@@ -4640,7 +4646,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="3">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -4657,28 +4663,7 @@
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
       <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
       <diagonal/>
@@ -4709,7 +4694,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4722,19 +4707,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4746,11 +4723,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4767,545 +4740,503 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:K1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.55078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="43.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="37.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="36.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="33.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="33.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="34.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="33.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="38.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="37.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="35.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="10.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="43.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="37.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="36.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="33.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="33.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="34.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="33.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="38.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="37.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="35.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="4" t="s">
+    <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="B12" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>8</v>
+      <c r="B13" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>129</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="L4" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="L5" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="K6" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="L6" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="L7" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="K8" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="L8" s="8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="K9" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="L9" s="8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="K10" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="L10" s="8" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="J11" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="K11" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="L11" s="8" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="I12" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="J12" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="K12" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="L12" s="8" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="I13" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="J13" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="K13" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="L13" s="8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="I14" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="J14" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="K14" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="L14" s="8" t="s">
-        <v>127</v>
-      </c>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H15" s="1"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F17" s="1"/>
       <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="J1:L1"/>
-  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
